--- a/01 业务梳理/接口/丽泽接口确认.xlsx
+++ b/01 业务梳理/接口/丽泽接口确认.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20088\Documents\YDWL\丽泽\01 业务梳理\接口\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinkpad\Documents\YDWL\丽泽\01 业务梳理\接口\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>序号</t>
   </si>
@@ -217,12 +218,82 @@
     <t>select EMPPWD, EmpChr1 from Hrms_Emp 的结果273条，这2个字段全是空，需要补录缺失字段信息；</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>接口名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>达实</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵磊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能说明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户变动通知接口 - 编写接口代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户变动通知接口 - 编写调用接口代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额更新（消费）接口 - 编写接口代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额更新（消费）接口 - 编写调用接口代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写调用对方接口及处理回调的代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）达实更新自己数据库；
+2）达实调用丽泽的接口；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）丽泽更新自己数据库；
+2）丽泽调用达实的接口；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵磊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望解决日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线日期顺延至</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -286,6 +357,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -312,7 +391,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -387,6 +466,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
@@ -400,7 +488,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -468,6 +556,28 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1598,9 +1708,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1915,4 +2025,360 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="39.1640625" customWidth="1"/>
+    <col min="3" max="3" width="6.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.9140625" customWidth="1"/>
+    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="28">
+      <c r="B2" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="31">
+        <v>43133</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="31">
+        <v>43133</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="28">
+      <c r="B4" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="31">
+        <v>43133</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="31">
+        <v>43133</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="30"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="30"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01 业务梳理/接口/丽泽接口确认.xlsx
+++ b/01 业务梳理/接口/丽泽接口确认.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>序号</t>
   </si>
@@ -223,10 +223,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>未开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>责任人</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -243,49 +239,55 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户变动通知接口 - 编写接口代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户变动通知接口 - 编写调用接口代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>余额更新（消费）接口 - 编写接口代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>余额更新（消费）接口 - 编写调用接口代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写调用对方接口及处理回调的代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）达实更新自己数据库；
-2）达实调用丽泽的接口；</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）丽泽更新自己数据库；
-2）丽泽调用达实的接口；</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>赵磊</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>丽泽系统提供接口给达实系统。
+1）达实系统将余额信息更新到自己数据库；
+2）达实系统调用丽泽的接口，更新丽泽账户余额；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>达实编写调用接口及处理回调的代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>达实系统提供接口给丽泽系统
+1）丽泽更新自己数据库；
+2）丽泽调用达实的接口更新达实账户余额；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽泽编写调用对方接口及处理回调的代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写接口代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写调用接口代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额更新（消费）接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>期望解决日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>上线日期顺延至</t>
+    <t>账户变动通知接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已过期</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -391,7 +393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -466,15 +468,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
@@ -536,6 +529,22 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -557,26 +566,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1709,7 +1702,7 @@
   <dimension ref="B1:G20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1906,7 +1899,7 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" ht="42">
-      <c r="B12" s="17">
+      <c r="B12" s="23">
         <v>11</v>
       </c>
       <c r="C12" s="8"/>
@@ -1922,7 +1915,7 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" ht="42">
-      <c r="B13" s="18"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="8"/>
       <c r="D13" s="4" t="s">
         <v>22</v>
@@ -1936,7 +1929,7 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:7" ht="70">
-      <c r="B14" s="18"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="8"/>
       <c r="D14" s="4" t="s">
         <v>24</v>
@@ -1950,7 +1943,7 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:7" ht="42">
-      <c r="B15" s="19"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="8"/>
       <c r="D15" s="4" t="s">
         <v>26</v>
@@ -1965,7 +1958,7 @@
       <c r="B16" s="1">
         <v>12</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="26" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1975,7 +1968,7 @@
         <v>28</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="27" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1983,7 +1976,7 @@
       <c r="B17" s="1">
         <v>13</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="3" t="s">
         <v>29</v>
       </c>
@@ -1991,13 +1984,13 @@
         <v>40</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="22"/>
+      <c r="G17" s="28"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="3" t="s">
         <v>30</v>
       </c>
@@ -2005,7 +1998,7 @@
         <v>31</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="23"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="20" spans="2:7" ht="56">
       <c r="C20" s="15" t="s">
@@ -2029,356 +2022,353 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G43"/>
+  <dimension ref="B1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="39.1640625" customWidth="1"/>
-    <col min="3" max="3" width="6.9140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.9140625" customWidth="1"/>
+    <col min="2" max="2" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.9140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="2:6">
+      <c r="B1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="42">
+      <c r="B2" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="30"/>
+      <c r="C3" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E3" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="42">
+      <c r="B4" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="30"/>
+      <c r="C5" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="29" t="s">
+      <c r="E5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="28">
-      <c r="B2" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="31">
-        <v>43133</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="31">
-        <v>43133</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="28">
-      <c r="B4" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="31">
-        <v>43133</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="31">
-        <v>43133</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="30"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="30"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="30"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="30"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="30"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="30"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="30"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="30"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="30"/>
+    <row r="6" spans="2:6">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="30"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="30"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="30"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="30"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="30"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/01 业务梳理/接口/丽泽接口确认.xlsx
+++ b/01 业务梳理/接口/丽泽接口确认.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>序号</t>
   </si>
@@ -107,9 +107,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>签名</t>
-  </si>
-  <si>
     <t>主界面，输入消费金额</t>
   </si>
   <si>
@@ -125,10 +122,6 @@
     <t>扣费流程，成功与失败处理</t>
   </si>
   <si>
-    <t>已有</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>需要闸机二维码规则，用于从App端生成二维码，同时二维码需要有时效控制</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -137,60 +130,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1、一卡通App接口文档；
-2、企业服务器IP：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>192.168.254.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-3、端口：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8080</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要提供</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一卡通接口文档：
-1、功能；
-2、请求方法；
-3、URL；
-4、输入参数说明；
-5、返回值data说明；
-6、错误的RtnCode说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>余额更新（充值）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -208,14 +147,6 @@
   </si>
   <si>
     <t>扫码支付</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>共通问题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>select EMPPWD, EmpChr1 from Hrms_Emp 的结果273条，这2个字段全是空，需要补录缺失字段信息；</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -275,19 +206,22 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>期望解决日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户变动通知接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已过期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>余额更新（消费）接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>期望解决日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户变动通知接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已过期</t>
+  </si>
+  <si>
+    <t>余额更新（消费）接口</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -337,22 +271,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
@@ -368,7 +286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,17 +297,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
       </patternFill>
     </fill>
   </fills>
@@ -469,7 +376,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -477,11 +384,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -510,74 +414,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="40% - 着色 1" xfId="2" builtinId="31"/>
     <cellStyle name="標準_改廃履歴_ﾍｯﾀﾞｰ修正xls" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="着色 3" xfId="3" builtinId="37"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1699,24 +1572,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G20"/>
+  <dimension ref="B1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.58203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.4140625" customWidth="1"/>
     <col min="5" max="5" width="57.9140625" customWidth="1"/>
-    <col min="6" max="6" width="57.5" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17" thickBot="1">
+    <row r="1" spans="2:5" ht="17" thickBot="1">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1729,14 +1600,8 @@
       <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" ht="42">
+    </row>
+    <row r="2" spans="2:5" ht="28">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -1749,12 +1614,8 @@
       <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="2:7" ht="42">
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -1765,12 +1626,8 @@
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="2:7" ht="42">
+    </row>
+    <row r="4" spans="2:5" ht="28">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -1781,28 +1638,20 @@
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="2:7" ht="42">
+    </row>
+    <row r="5" spans="2:5" ht="28">
       <c r="B5" s="2">
         <v>4</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="2:7" ht="42">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -1813,12 +1662,8 @@
       <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="2:7" ht="42">
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="2">
         <v>6</v>
       </c>
@@ -1829,12 +1674,8 @@
       <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="2:7" ht="98">
+    </row>
+    <row r="8" spans="2:5" ht="28">
       <c r="B8" s="2">
         <v>7</v>
       </c>
@@ -1845,44 +1686,32 @@
       <c r="E8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="98">
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="2">
         <v>8</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="98">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="2">
         <v>9</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="2:7" ht="42">
+    </row>
+    <row r="11" spans="2:5" ht="28">
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -1893,13 +1722,9 @@
       <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="2:7" ht="42">
-      <c r="B12" s="23">
+    </row>
+    <row r="12" spans="2:5" ht="28">
+      <c r="B12" s="18">
         <v>11</v>
       </c>
       <c r="C12" s="8"/>
@@ -1909,13 +1734,9 @@
       <c r="E12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:7" ht="42">
-      <c r="B13" s="24"/>
+    </row>
+    <row r="13" spans="2:5" ht="28">
+      <c r="B13" s="19"/>
       <c r="C13" s="8"/>
       <c r="D13" s="4" t="s">
         <v>22</v>
@@ -1923,13 +1744,9 @@
       <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="2:7" ht="70">
-      <c r="B14" s="24"/>
+    </row>
+    <row r="14" spans="2:5" ht="70">
+      <c r="B14" s="19"/>
       <c r="C14" s="8"/>
       <c r="D14" s="4" t="s">
         <v>24</v>
@@ -1937,82 +1754,57 @@
       <c r="E14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="4" t="s">
+    </row>
+    <row r="15" spans="2:5" ht="102.5" customHeight="1">
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="2:7" ht="42">
-      <c r="B15" s="25"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="2:7" ht="102.5" customHeight="1">
-      <c r="B16" s="1">
-        <v>12</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="1">
-        <v>13</v>
-      </c>
-      <c r="C17" s="26"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="20"/>
       <c r="D17" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="28"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="1">
-        <v>14</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="29"/>
-    </row>
-    <row r="20" spans="2:7" ht="56">
-      <c r="C20" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>44</v>
-      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="C19" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
+  <mergeCells count="2">
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C15:C17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2024,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2038,329 +1830,329 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="42">
+      <c r="B2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="21"/>
+      <c r="C3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="F3" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="42">
+      <c r="B4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F4" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="21"/>
+      <c r="C5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" ht="42">
-      <c r="B2" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="30"/>
-      <c r="C3" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="20" t="s">
+      <c r="D5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="42">
-      <c r="B4" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="F5" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="30"/>
-      <c r="C5" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="22"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="22"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="22"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="22"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="22"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="22"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="22"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="22"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="22"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="22"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="22"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="22"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="22"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="22"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/01 业务梳理/接口/丽泽接口确认.xlsx
+++ b/01 业务梳理/接口/丽泽接口确认.xlsx
@@ -1,160 +1,146 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinkpad\Documents\YDWL\丽泽\01 业务梳理\接口\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20088\Documents\YDWL\丽泽\01 业务梳理\接口\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28696" windowHeight="13052"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>功能需求</t>
-  </si>
-  <si>
-    <t>详细（开发与联调）</t>
-  </si>
-  <si>
-    <t>APP接口</t>
-  </si>
-  <si>
-    <t>交易明细</t>
-  </si>
-  <si>
-    <t>用户充值，消费的流水账，跟银行存折类似，查询参数可指定交易类型或所有类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>余额查询</t>
+    <t>余额更新（消费）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>告诉一卡通系统，给某用户账户减少XX元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>联调成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token注册</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂失</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解挂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值数据查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费数据查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一卡通余额查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码开门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>访客邀请</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>查询一卡通内余额</t>
-  </si>
-  <si>
-    <t>一卡通状态，卡状态与消费账户状态</t>
-  </si>
-  <si>
-    <t>实时查询一卡通状态，有效或者失效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂失</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户通过手机号注册，输入手机号后系统会发送验证码进行验证，用户设置密码提交后完成注册</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要闸机二维码规则，用于从App端生成二维码，同时二维码需要有时效控制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户查询自己的充值明细</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户查询自己的消费数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户查询一卡通的挂失、解挂、补卡记录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>可更新一卡通的状态，此卡的状态变成无效，同时产生卡事件</t>
-  </si>
-  <si>
-    <t>解挂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>可更新一卡通的状态，此卡的状态变成有效，同时产生卡事件</t>
-  </si>
-  <si>
-    <t>账户变动通知</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一卡通某用户的账户余额变了之后，会调用我们给定的一个url，这样丽泽智慧平台系统就能收到通知</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>告诉一卡通系统，给某用户账户增加XX元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册</t>
-  </si>
-  <si>
-    <t>用户通过手机号注册，输入手机号后系统会发送验证码进行验证，用户设置密码提交后完成注册</t>
-  </si>
-  <si>
-    <t>安全机制，敏感数据加密</t>
-  </si>
-  <si>
-    <t>1、 由服务端生成一套RSA公钥/私钥，用于保护Token的传输，公钥给APP 公开</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>2、 由APP客户端以生成随机数的方法生成Token，用于签名和对敏感数据加密（如密码、帐号等）；</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RSA</t>
-  </si>
-  <si>
-    <t>3、 APP端请求服务之前，将生成的Token用RSA公钥加密 ，随用户登录及Token注册方法（用户ID+ 用户密码 + Token）传给服务端。服务端用RSA私钥对Token进行解码，获得Token值后再用Token解密用户密码，再进行后台认证和Token注册。Token的有效期默认为2个小时（可配置），两个小时后，Token失效，APP端需再注册新的Token。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面，输入消费金额</t>
-  </si>
-  <si>
-    <t>完成金额输入确认，等待二维码扫描</t>
-  </si>
-  <si>
-    <t>调用扫码设备</t>
-  </si>
-  <si>
-    <t>交易处理</t>
-  </si>
-  <si>
-    <t>扣费流程，成功与失败处理</t>
-  </si>
-  <si>
-    <t>需要闸机二维码规则，用于从App端生成二维码，同时二维码需要有时效控制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>闸机二维码生成规则</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>余额更新（充值）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>告诉一卡通系统，给某用户账户增加XX元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫描APP生成的二维码，读取二维码中的卡号信息，确定消费人员</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>余额更新（消费）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫码支付</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>责任人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行一卡通充值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token值注册</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据访客信息获取访客开门的二维码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始联调</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -166,62 +152,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>功能说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵磊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>丽泽系统提供接口给达实系统。
-1）达实系统将余额信息更新到自己数据库；
-2）达实系统调用丽泽的接口，更新丽泽账户余额；</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>达实编写调用接口及处理回调的代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>达实系统提供接口给丽泽系统
-1）丽泽更新自己数据库；
-2）丽泽调用达实的接口更新达实账户余额；</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>丽泽编写调用对方接口及处理回调的代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写接口代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写调用接口代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>事务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>期望解决日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户变动通知接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已过期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>余额更新（消费）接口</t>
-  </si>
-  <si>
-    <t>余额更新（消费）接口</t>
+    <t>未开始开发</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -277,14 +208,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -300,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -323,58 +246,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
@@ -385,66 +256,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1572,593 +1402,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E19"/>
+  <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.85"/>
   <cols>
-    <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.4140625" customWidth="1"/>
-    <col min="5" max="5" width="57.9140625" customWidth="1"/>
+    <col min="2" max="2" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="7.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="17" thickBot="1">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="2:6" ht="16.149999999999999">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="27.65">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" ht="28">
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="2">
+      <c r="D13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="28">
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="28">
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="E13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="28">
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="28">
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="28">
-      <c r="B12" s="18">
-        <v>11</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="28">
-      <c r="B13" s="19"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="70">
-      <c r="B14" s="19"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="102.5" customHeight="1">
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="1">
-        <v>13</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="1">
-        <v>14</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="C19" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C15:C17"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F43"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="2" max="2" width="20.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.9140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" ht="42">
-      <c r="B2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="21"/>
-      <c r="C3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="42">
-      <c r="B4" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="21"/>
-      <c r="C5" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
